--- a/Test Data/Cy Gate Lane 1.xlsx
+++ b/Test Data/Cy Gate Lane 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutoTest\testscript\Gate-Simulation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Automation Tool\Gate-Simulation\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
